--- a/biology/Histoire de la zoologie et de la botanique/Nikolaï_Nikolaïevitch_Tzvelev/Nikolaï_Nikolaïevitch_Tzvelev.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Nikolaï_Nikolaïevitch_Tzvelev/Nikolaï_Nikolaïevitch_Tzvelev.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nikola%C3%AF_Nikola%C3%AFevitch_Tzvelev</t>
+          <t>Nikolaï_Nikolaïevitch_Tzvelev</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nikolaï Nikolaïevitch Tzvelev (russe : Николай Николаевич Цвелёв) était un botaniste soviétique puis russe. Découvreur de plusieurs espèces de plantes, en taxonomie végétale, son nom est abrégé en Tzelev[1]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nikolaï Nikolaïevitch Tzvelev (russe : Николай Николаевич Цвелёв) était un botaniste soviétique puis russe. Découvreur de plusieurs espèces de plantes, en taxonomie végétale, son nom est abrégé en Tzelev
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nikola%C3%AF_Nikola%C3%AFevitch_Tzvelev</t>
+          <t>Nikolaï_Nikolaïevitch_Tzvelev</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jeune, il aimait à constituer des herbiers de la flore de Tambov.
 Tzvelev participa à la Grande Guerre patriotique sur le Front de l'Est, notamment le premier front biélorusse et la bataille de Berlin. Pendant une année, il intégra ensuite les effectifs du Groupement des forces armées soviétiques en Allemagne.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nikola%C3%AF_Nikola%C3%AFevitch_Tzvelev</t>
+          <t>Nikolaï_Nikolaïevitch_Tzvelev</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1978 : Prix Komarov (Премия имени В. Л. Комарова (ru))
 1989 : Prix d'État de l'URSS</t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nikola%C3%AF_Nikola%C3%AFevitch_Tzvelev</t>
+          <t>Nikolaï_Nikolaïevitch_Tzvelev</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Plantes décrites par Tzvelev</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Arctanthemum
@@ -630,7 +648,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nikola%C3%AF_Nikola%C3%AFevitch_Tzvelev</t>
+          <t>Nikolaï_Nikolaïevitch_Tzvelev</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -648,7 +666,9 @@
           <t>Plantes portant son nom</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Aconogonon tzvelevii V.Yu.Barkalov &amp; Vyschin
@@ -684,7 +704,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nikola%C3%AF_Nikola%C3%AFevitch_Tzvelev</t>
+          <t>Nikolaï_Nikolaïevitch_Tzvelev</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -702,7 +722,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1973. Conspectus specierum tribus Triticeae Dum. familiae Poaceae in Flora URSS. Novosti Sistematiki Vysshikh Rastenij 10: 19—59.
 1983. Grasses of the Soviet Union. Amerind, New Delhi, India.
